--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378998.9436631816</v>
+        <v>376293.3082743286</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221764</v>
+        <v>2629876.587221762</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19997574.02179437</v>
       </c>
     </row>
     <row r="9">
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>39.58387696184059</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X2" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H4" t="n">
         <v>39.58387696184059</v>
@@ -841,7 +841,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F5" t="n">
-        <v>12.92549025883184</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="T6" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="I7" t="n">
         <v>39.58387696184059</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.92549025883184</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="G8" t="n">
         <v>39.58387696184059</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G9" t="n">
         <v>39.58387696184059</v>
@@ -1230,10 +1230,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1306,40 +1306,40 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J10" t="n">
+      <c r="R10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K10" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.86547882798917</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="G11" t="n">
         <v>39.58387696184059</v>
@@ -1391,7 +1391,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1458,55 +1458,55 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="T12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H12" t="n">
+      <c r="U12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I12" t="n">
+      <c r="V12" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1619,16 +1619,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I14" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,64 +1695,64 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H15" t="n">
+      <c r="V15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I15" t="n">
+      <c r="W15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="16">
@@ -1853,64 +1853,64 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="H17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>38.12502610536669</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1974,7 +1974,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2002,29 +2002,29 @@
         <v>44.13217237922859</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.790450447682262</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
       <c r="Y19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,70 +2081,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.2184153478179</v>
+        <v>103.7130553628818</v>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.69355372315674</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2473,67 +2473,67 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>38.78703662065078</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>96.52468151912598</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>230.2038249569697</v>
+        <v>1.809496073036188</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>47.80876671705462</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>51.72215467797748</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>63.55806630105586</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.0339917726842</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,76 +3263,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>142.0543828173919</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>36.10479393315186</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>198.2885478252619</v>
       </c>
       <c r="X41" t="n">
         <v>236.4659934602711</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>15.94968820021328</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>136.2868555448613</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>39.58387696184059</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>39.58387696184059</v>
@@ -4122,7 +4122,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,64 +4141,64 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>7.256111626157765</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4334,13 +4334,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O2" t="n">
         <v>119.1474696551402</v>
@@ -4352,25 +4352,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="S2" t="n">
         <v>118.3517937444931</v>
       </c>
-      <c r="S2" t="n">
-        <v>78.36807964162378</v>
-      </c>
       <c r="T2" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U2" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V2" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W2" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y2" t="n">
         <v>3.166710156947247</v>
@@ -4410,19 +4410,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P3" t="n">
         <v>119.1474696551402</v>
@@ -4477,16 +4477,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H4" t="n">
-        <v>93.21247408113457</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22875997826529</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C5" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D5" t="n">
-        <v>148.2438924791353</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E5" t="n">
-        <v>148.2438924791353</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1878417126385</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>95.20412760976917</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
@@ -4571,7 +4571,7 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L5" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M5" t="n">
         <v>42.35474834916943</v>
@@ -4580,37 +4580,37 @@
         <v>81.54278654139161</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
         <v>3.166710156947247</v>
@@ -4653,43 +4653,43 @@
         <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N6" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O6" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="S6" t="n">
         <v>118.3517937444931</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>78.36807964162378</v>
       </c>
-      <c r="T6" t="n">
-        <v>43.90455691260225</v>
-      </c>
       <c r="U6" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F7" t="n">
-        <v>83.13413836268582</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G7" t="n">
-        <v>43.15042425981653</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H7" t="n">
         <v>43.15042425981653</v>
@@ -4741,34 +4741,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F8" t="n">
         <v>135.1878417126385</v>
@@ -4808,13 +4808,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="N8" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O8" t="n">
         <v>119.1474696551402</v>
@@ -4823,31 +4823,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="9">
@@ -4866,34 +4866,34 @@
         <v>158.3355078473624</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O9" t="n">
         <v>119.1474696551402</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>13.245045875396</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>13.245045875396</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4981,31 +4981,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="11">
@@ -5027,16 +5027,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="F11" t="n">
-        <v>123.1178524655551</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="G11" t="n">
-        <v>83.13413836268582</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="H11" t="n">
-        <v>43.15042425981653</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J11" t="n">
         <v>3.166710156947247</v>
@@ -5045,13 +5045,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="M11" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="N11" t="n">
         <v>81.54278654139161</v>
-      </c>
-      <c r="M11" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="N11" t="n">
-        <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
         <v>119.1474696551402</v>
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M12" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N12" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O12" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P12" t="n">
         <v>119.1474696551402</v>
@@ -5145,25 +5145,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95.20412760976917</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C14" t="n">
-        <v>95.20412760976917</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D14" t="n">
-        <v>95.20412760976917</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E14" t="n">
-        <v>95.20412760976917</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F14" t="n">
-        <v>55.22041350689989</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G14" t="n">
-        <v>55.22041350689989</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H14" t="n">
-        <v>55.22041350689989</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
         <v>3.166710156947247</v>
@@ -5282,7 +5282,7 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
         <v>81.54278654139161</v>
@@ -5291,37 +5291,37 @@
         <v>119.1474696551402</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P14" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V14" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W14" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X14" t="n">
-        <v>95.20412760976917</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y14" t="n">
-        <v>95.20412760976917</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F15" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G15" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
         <v>3.166710156947247</v>
@@ -5361,13 +5361,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L15" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N15" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O15" t="n">
         <v>79.95943146291799</v>
@@ -5388,19 +5388,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="16">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>45.45613755060546</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>89.14698820604177</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M17" t="n">
-        <v>132.8378388614781</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H18" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I18" t="n">
         <v>4.284706443124001</v>
@@ -5598,19 +5598,19 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N18" t="n">
-        <v>47.22142444577459</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
         <v>176.5286895169144</v>
@@ -5622,22 +5622,22 @@
         <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>48.90696048418764</v>
+      </c>
+      <c r="C19" t="n">
+        <v>48.90696048418764</v>
+      </c>
+      <c r="D19" t="n">
+        <v>48.90696048418764</v>
+      </c>
+      <c r="E19" t="n">
+        <v>48.90696048418764</v>
+      </c>
+      <c r="F19" t="n">
+        <v>48.90696048418764</v>
+      </c>
+      <c r="G19" t="n">
+        <v>48.90696048418764</v>
+      </c>
+      <c r="H19" t="n">
+        <v>48.90696048418764</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.329008585976936</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
         <v>3.530573790338288</v>
@@ -5710,13 +5710,13 @@
         <v>138.062864280609</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X19" t="n">
         <v>93.48491238239833</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5832,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>417.2522547781879</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X21" t="n">
-        <v>209.4007545726551</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6069,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>880.5283133660334</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>880.5283133660334</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>310.5702840197694</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6181,16 +6181,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>58.45996797955695</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>58.45996797955695</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>866.5574772084888</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>693.1401326591576</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>490.9535380179237</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>262.7299197543128</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>217.6974229850125</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>251.810259228364</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>352.8382100532927</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6546,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>521.0535470733607</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.0535470733607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6643,25 +6643,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>258.688372014889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>84.23534273376194</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>84.23534273376194</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>84.23534273376194</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>634.6640077999109</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>634.6640077999109</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>426.903709034957</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>852.019301208126</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>852.019301208126</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>852.019301208126</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>146.8043937272075</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>146.8043937272075</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>146.8043937272075</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>146.8043937272075</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>146.8043937272075</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>146.8043937272075</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>933.9571464551993</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>354.5646924921614</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>146.8043937272075</v>
       </c>
     </row>
     <row r="40">
@@ -7366,16 +7366,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.3003572948082</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C41" t="n">
-        <v>229.3003572948082</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D41" t="n">
         <v>18.91727947682168</v>
@@ -7412,49 +7412,49 @@
         <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>724.8382864425462</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.0332365851942</v>
       </c>
       <c r="P41" t="n">
         <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="X41" t="n">
-        <v>707.0094349923255</v>
+        <v>496.626357174339</v>
       </c>
       <c r="Y41" t="n">
-        <v>468.1548961435668</v>
+        <v>257.7718183255803</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.78220829143899</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="C42" t="n">
-        <v>35.78220829143899</v>
+        <v>156.5807699261765</v>
       </c>
       <c r="D42" t="n">
-        <v>19.6714121296074</v>
+        <v>156.5807699261765</v>
       </c>
       <c r="E42" t="n">
-        <v>19.6714121296074</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F42" t="n">
-        <v>19.6714121296074</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>19.6714121296074</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>19.6714121296074</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
         <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>18.91727947682168</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>225.6232706630674</v>
+        <v>477.6613067897475</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7246041887357</v>
+        <v>711.7626403154159</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q42" t="n">
         <v>945.8639738410842</v>
@@ -7521,19 +7521,19 @@
         <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>717.6403555774732</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>482.4882473457305</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W42" t="n">
-        <v>243.6337084969718</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X42" t="n">
-        <v>35.78220829143899</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="Y42" t="n">
-        <v>35.78220829143899</v>
+        <v>499.2491362273716</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7600,10 @@
         <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
-        <v>153.4495699670924</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4495699670924</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
         <v>18.91727947682168</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C44" t="n">
         <v>3.166710156947247</v>
@@ -7655,13 +7655,13 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M44" t="n">
-        <v>120.7308247336138</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N44" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P44" t="n">
         <v>158.3355078473624</v>
@@ -7670,28 +7670,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S44" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T44" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U44" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V44" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="W44" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="X44" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="Y44" t="n">
         <v>83.13413836268582</v>
-      </c>
-      <c r="W44" t="n">
-        <v>83.13413836268582</v>
-      </c>
-      <c r="X44" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C45" t="n">
         <v>3.166710156947247</v>
@@ -7734,16 +7734,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N45" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
@@ -7761,16 +7761,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V45" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W45" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X45" t="n">
+        <v>78.36807964162378</v>
+      </c>
+      <c r="Y45" t="n">
         <v>43.15042425981653</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.13413836268582</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C46" t="n">
-        <v>83.13413836268582</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D46" t="n">
-        <v>83.13413836268582</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E46" t="n">
-        <v>43.15042425981653</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="H46" t="n">
         <v>3.166710156947247</v>
@@ -7822,34 +7822,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>83.13413836268582</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>83.13413836268582</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>83.13413836268582</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W46" t="n">
-        <v>83.13413836268582</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X46" t="n">
-        <v>83.13413836268582</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.13413836268582</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N2" t="n">
-        <v>267.3975919943167</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
         <v>270.8168727171101</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,13 +8067,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q3" t="n">
         <v>179.5656510478621</v>
@@ -8219,19 +8219,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>268.0827398194126</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
         <v>170.9255890451739</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>177.9663024837473</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,16 +8456,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
-        <v>268.0827398194126</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>270.8168727171101</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>173.5582843761708</v>
@@ -8693,16 +8693,16 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P11" t="n">
         <v>270.8168727171101</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>176.5389081776</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -8781,10 +8781,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q12" t="n">
         <v>179.5656510478621</v>
@@ -8930,19 +8930,19 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>267.3975919943167</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,7 +9009,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>176.5389081776</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -9018,7 +9018,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P15" t="n">
         <v>173.5582843761708</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>262.4389053482807</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
         <v>279.8985873492159</v>
@@ -9173,13 +9173,13 @@
         <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9246,22 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.3308283893217</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,10 +9726,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,16 +10194,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
-        <v>360.302996258564</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>303.7892960137443</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>350.9279644131756</v>
+        <v>246.6020757268055</v>
       </c>
       <c r="N42" t="n">
         <v>367.8077055436044</v>
@@ -11154,10 +11154,10 @@
         <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,7 +11303,7 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>267.3975919943167</v>
@@ -11312,7 +11312,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,19 +11382,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O45" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22592,7 +22592,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>169.4361926244048</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X2" t="n">
-        <v>334.8656218504798</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22717,7 +22717,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H4" t="n">
         <v>122.643295545599</v>
@@ -22729,7 +22729,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22784,28 +22784,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F5" t="n">
-        <v>393.9505554828796</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22881,10 +22881,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,19 +22908,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>132.0992941419972</v>
       </c>
       <c r="T6" t="n">
-        <v>166.0458411930903</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>197.9351083214361</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22951,13 +22951,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>138.1649363967735</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>152.2496201461753</v>
       </c>
       <c r="I7" t="n">
         <v>115.8665979654177</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>46.5781662898538</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>393.9505554828796</v>
+        <v>383.9598562683348</v>
       </c>
       <c r="G8" t="n">
         <v>375.7188605532945</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23106,10 +23106,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>122.7796016274118</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G9" t="n">
         <v>97.75964020137005</v>
@@ -23118,10 +23118,10 @@
         <v>72.65156727465587</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,13 +23221,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>372.0105669137222</v>
+        <v>383.9598562683348</v>
       </c>
       <c r="G11" t="n">
         <v>375.7188605532945</v>
@@ -23279,7 +23279,7 @@
         <v>170.8920126085653</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,16 +23385,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23507,16 +23507,16 @@
         <v>367.2921687798708</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,13 +23552,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>314.8267682113031</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,19 +23628,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="16">
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>379.9537176646994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>386.4218192980553</v>
       </c>
       <c r="H17" t="n">
         <v>295.3426297365386</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="18">
@@ -23829,7 +23829,7 @@
         <v>74.11041813112978</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,7 +23862,7 @@
         <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23890,7 +23890,7 @@
         <v>135.6998078027087</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,10 +23908,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J19" t="n">
-        <v>93.35918011667277</v>
+        <v>92.56872966899051</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,7 +23981,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,25 +24014,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U20" t="n">
-        <v>51.00955661900684</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,19 +24102,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.46428042948642</v>
+        <v>101.9696404144226</v>
       </c>
     </row>
     <row r="22">
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24166,13 +24166,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>352.8864698128427</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,7 +24251,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>90.01494526515906</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>17.46428042948639</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24458,10 +24458,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>319.7468667292034</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,7 +24494,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24528,13 +24528,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>98.55648054255985</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.633152633517156</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24698,7 +24698,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24731,7 +24731,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24740,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>156.0341136990839</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>124.8997322712611</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,10 +24768,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>50.10013888409014</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,16 +24965,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>276.0301037921574</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,7 +25005,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>81.51114609232802</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,13 +25053,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25099,7 +25099,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,13 +25114,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>155.2593996044853</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>15.59069763800903</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,19 +25287,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,25 +25391,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25485,13 +25485,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>76.13065030334459</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,16 +25527,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,7 +25631,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>146.4037945808764</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>150.9524208921511</v>
       </c>
       <c r="X41" t="n">
         <v>133.265107218198</v>
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>131.4953773644255</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>21.35822491053963</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25840,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,13 +25922,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>346.654061694213</v>
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -26001,7 +26001,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>197.9351083214361</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>212.111106199079</v>
@@ -26010,7 +26010,7 @@
         <v>166.1891082416369</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>152.2496201461753</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26062,10 +26062,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26074,7 +26074,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.5609397931</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397931</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397931</v>
+        <v>355290.5609397932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.67965375919</v>
+        <v>71053.6796537592</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.67965375916</v>
+        <v>71053.6796537592</v>
       </c>
       <c r="D2" t="n">
+        <v>71053.6796537592</v>
+      </c>
+      <c r="E2" t="n">
         <v>71053.67965375917</v>
-      </c>
-      <c r="E2" t="n">
-        <v>71053.67965375919</v>
       </c>
       <c r="F2" t="n">
         <v>71053.67965375917</v>
@@ -26329,31 +26329,31 @@
         <v>71731.80321071926</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>99050.37600907717</v>
+        <v>99050.37600907718</v>
       </c>
       <c r="P2" t="n">
-        <v>71053.67965375919</v>
+        <v>71053.6796537592</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="C4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="D4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="E4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="F4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="G4" t="n">
-        <v>11735.85292711539</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16411.88104199264</v>
+        <v>16801.53650439377</v>
       </c>
       <c r="P4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10134.1315340509</v>
+        <v>9856.058660301918</v>
       </c>
       <c r="C6" t="n">
-        <v>23399.59913313378</v>
+        <v>23121.52625938483</v>
       </c>
       <c r="D6" t="n">
-        <v>23399.59913313379</v>
+        <v>23121.52625938484</v>
       </c>
       <c r="E6" t="n">
-        <v>57027.19913313381</v>
+        <v>56749.12625938481</v>
       </c>
       <c r="F6" t="n">
-        <v>57027.19913313379</v>
+        <v>56749.12625938481</v>
       </c>
       <c r="G6" t="n">
-        <v>56066.09465347196</v>
+        <v>55785.31907576995</v>
       </c>
       <c r="H6" t="n">
-        <v>15399.70838927743</v>
+        <v>15007.47814373182</v>
       </c>
       <c r="I6" t="n">
-        <v>68520.27535960238</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="J6" t="n">
-        <v>58163.3914557986</v>
+        <v>57771.16121025305</v>
       </c>
       <c r="K6" t="n">
-        <v>68520.27535960241</v>
+        <v>68128.04511405689</v>
       </c>
       <c r="L6" t="n">
-        <v>68520.27535960238</v>
+        <v>68128.04511405689</v>
       </c>
       <c r="M6" t="n">
-        <v>68520.27535960243</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="N6" t="n">
-        <v>68520.27535960241</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="O6" t="n">
-        <v>68261.36256470004</v>
+        <v>67871.70710229894</v>
       </c>
       <c r="P6" t="n">
-        <v>57027.19913313381</v>
+        <v>56749.12625938484</v>
       </c>
     </row>
   </sheetData>
@@ -34702,16 +34702,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>39.58387696184059</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34787,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q3" t="n">
         <v>39.58387696184059</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O5" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="P5" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N6" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O6" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P6" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="O8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O8" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="P8" t="n">
         <v>39.58387696184059</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>39.58387696184059</v>
@@ -35413,16 +35413,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>39.58387696184059</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="P12" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
         <v>39.58387696184059</v>
@@ -35650,19 +35650,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
         <v>39.58387696184059</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>44.13217237922859</v>
@@ -35893,13 +35893,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="P18" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>42.34905430330016</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,10 +36446,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36844,7 +36844,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36914,16 +36914,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>72.55630025847472</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>208.7939304911573</v>
+        <v>104.4680418047872</v>
       </c>
       <c r="N42" t="n">
         <v>236.4659934602711</v>
@@ -37874,10 +37874,10 @@
         <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>37.98452839772582</v>
@@ -38032,7 +38032,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O45" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376293.3082743286</v>
+        <v>373007.8661325562</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221762</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179437</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902171.467891437</v>
+        <v>5117581.913230948</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -829,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1218,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.91618947337665</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1494,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
-        <v>28.88091821707973</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>38.12502610536669</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2020,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,14 +2080,14 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -2123,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>103.7130553628818</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2406,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.69355372315674</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>19.7279353865638</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
@@ -2640,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>38.78703662065078</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>124.0051303913027</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2694,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2755,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -2834,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>182.7004482653351</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>10.06793172069468</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>29.88929839105575</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,52 +3283,52 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>94.41048699370604</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3345,28 +3347,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>92.76552758601771</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>142.0543828173919</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>36.10479393315186</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,13 +3641,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,55 +3660,55 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>198.2885478252619</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>136.2868555448613</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3870,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>90.90725545139047</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>39.58387696184059</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>34.86547882798917</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>92.72704515543269</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W2" t="n">
-        <v>43.15042425981653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>42.35474834916943</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>123.1178524655551</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>83.13413836268582</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>43.15042425981653</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C5" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D5" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E5" t="n">
-        <v>38.38436553875449</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M5" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N6" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U6" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.21247408113457</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="R7" t="n">
-        <v>53.22875997826529</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S7" t="n">
-        <v>53.22875997826529</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T7" t="n">
-        <v>53.22875997826529</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U7" t="n">
-        <v>53.22875997826529</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V7" t="n">
-        <v>53.22875997826529</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W7" t="n">
-        <v>53.22875997826529</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X7" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F9" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G9" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>13.245045875396</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F11" t="n">
-        <v>135.1878417126385</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G11" t="n">
-        <v>95.20412760976917</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H11" t="n">
-        <v>55.22041350689989</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M11" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N12" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O12" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T12" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U12" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H13" t="n">
-        <v>105.6285745504463</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I13" t="n">
-        <v>65.64486044757699</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="C14" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="D14" t="n">
-        <v>158.3355078473624</v>
+        <v>104.756466833843</v>
       </c>
       <c r="E14" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="F14" t="n">
-        <v>118.3517937444931</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="G14" t="n">
-        <v>78.36807964162378</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="H14" t="n">
-        <v>38.38436553875449</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O15" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U15" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V15" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W15" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X15" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>77.28117035226589</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>48.10852568854899</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>42.79483382228227</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>42.79483382228227</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>42.79483382228227</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>42.79483382228227</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>4.284706443124001</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>132.8378388614781</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>298.4948343740486</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>298.4948343740486</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.6980943980675</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.6980943980675</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>880.5283133660334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>880.5283133660334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>678.3417187247995</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E26" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F26" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G26" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>217.6974229850125</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C27" t="n">
-        <v>217.6974229850125</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>217.6974229850125</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>58.45996797955695</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>58.45996797955695</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>838.7994480446739</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>636.61285340344</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>636.61285340344</v>
       </c>
       <c r="V27" t="n">
-        <v>425.5489231905453</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W27" t="n">
-        <v>425.5489231905453</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X27" t="n">
-        <v>217.6974229850125</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y27" t="n">
-        <v>217.6974229850125</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H29" t="n">
         <v>231.8830517671884</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6551,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6643,19 +6645,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>352.8382100532927</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.3851807721657</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>29.45077111091442</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>29.45077111091442</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6785,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6810,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>521.0535470733607</v>
       </c>
     </row>
     <row r="34">
@@ -6889,10 +6891,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6917,16 +6919,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6959,19 +6961,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>601.5428246748836</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>358.0940480307835</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
         <v>262.7299197543128</v>
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>486.9119902784999</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C36" t="n">
-        <v>312.4589609973729</v>
+        <v>528.7219208240474</v>
       </c>
       <c r="D36" t="n">
-        <v>163.5245513361216</v>
+        <v>528.7219208240474</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>655.1273272985679</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7217,7 +7219,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>146.8043937272075</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C39" t="n">
-        <v>146.8043937272075</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D39" t="n">
-        <v>146.8043937272075</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E39" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P39" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4161926976942</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>354.5646924921614</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>146.8043937272075</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="40">
@@ -7354,28 +7356,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>935.7723584728571</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>735.4808960230977</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>496.626357174339</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>156.5807699261765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>156.5807699261765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>477.6613067897475</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>711.7626403154159</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>945.8639738410842</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>81.54278654139161</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1178524655551</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X44" t="n">
-        <v>123.1178524655551</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>42.35474834916943</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>81.54278654139161</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>120.7308247336138</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>118.3517937444931</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X45" t="n">
-        <v>78.36807964162378</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y45" t="n">
-        <v>43.15042425981653</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8219,19 +8221,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>269.2175241529953</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8303,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8456,19 +8458,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N14" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9960,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10197,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10431,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q39" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>246.6020757268055</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>267.3975919943167</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,19 +11384,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>171.9589358120561</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22556,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22595,22 +22597,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22635,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22784,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22844,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22863,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22911,16 +22913,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
-        <v>186.3575051191342</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V6" t="n">
-        <v>197.9351083214361</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22957,10 +22959,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>152.2496201461753</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23002,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="8">
@@ -23024,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>388.380409438123</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23106,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>122.7796016274118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,13 +23223,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>383.9598562683348</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>171.6042721387814</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23382,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
-        <v>136.8176922758487</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T12" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>186.3575051191342</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23431,13 +23433,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>204.0849077710508</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23492,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>355.8115135864685</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>175.6104107424167</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23592,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23668,13 +23670,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>204.0849077710508</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
-        <v>386.4218192980553</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>74.11041813112978</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,10 +23910,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>92.56872966899051</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -23947,13 +23949,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24011,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24032,7 +24034,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>101.9696404144226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24294,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>21.73266246152022</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>17.46428042948639</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24382,7 +24384,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>319.7468667292034</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,10 +24496,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
@@ -24528,13 +24530,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>98.55648054255985</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>47.67804071253514</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24582,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24643,7 +24645,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24652,10 +24654,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>256.5108343207664</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>384.4284425830174</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>50.10013888409014</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,7 +24928,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>135.0012806726892</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25050,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25129,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25199,22 +25201,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>254.830481723707</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25233,28 +25235,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.94297140229803</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>15.59069763800903</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25400,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H38" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25476,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>127.7557820643452</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>76.13065030334459</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,13 +25529,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>150.9524208921511</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>21.35822491053963</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25758,19 +25760,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>160.7877277095291</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>325.689014809167</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>115.0036391131605</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>54.71802040920606</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,7 +25997,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>152.2496201461753</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26080,13 +26082,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.783772988</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397932</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.6796537592</v>
+        <v>71731.80321071921</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.6796537592</v>
+        <v>71731.80321071917</v>
       </c>
       <c r="D2" t="n">
-        <v>71053.6796537592</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.67965375917</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="F2" t="n">
-        <v>71053.67965375917</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="K2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="L2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99050.37600907718</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
-        <v>71053.6796537592</v>
+        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16801.53650439377</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>11897.85367509446</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9856.058660301918</v>
+        <v>8614.63262100047</v>
       </c>
       <c r="C6" t="n">
-        <v>23121.52625938483</v>
+        <v>23404.33862524465</v>
       </c>
       <c r="D6" t="n">
-        <v>23121.52625938484</v>
+        <v>23404.33862524468</v>
       </c>
       <c r="E6" t="n">
-        <v>56749.12625938481</v>
+        <v>57031.93862524474</v>
       </c>
       <c r="F6" t="n">
-        <v>56749.12625938481</v>
+        <v>57031.93862524472</v>
       </c>
       <c r="G6" t="n">
-        <v>55785.31907576995</v>
+        <v>14165.61021358455</v>
       </c>
       <c r="H6" t="n">
-        <v>15007.47814373182</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405685</v>
+        <v>68128.04511405683</v>
       </c>
       <c r="J6" t="n">
-        <v>57771.16121025305</v>
+        <v>56581.12700406594</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405689</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405689</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405685</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405685</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="O6" t="n">
-        <v>67871.70710229894</v>
+        <v>20748.16689659307</v>
       </c>
       <c r="P6" t="n">
-        <v>56749.12625938484</v>
+        <v>68128.04511405688</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34939,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35176,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36680,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36844,7 +36846,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36917,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>104.4680418047872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>37.98452839772582</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>37.98452839772582</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373007.8661325562</v>
+        <v>267281.5962860415</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117581.913230948</v>
+        <v>5765385.89860145</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>38.87161743162454</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>155.2574994062486</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>38.12502610536669</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>44.13217237922859</v>
+        <v>146.9525391092905</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>26.92232807701203</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>5.4761733385883</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S13" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44.13217237922859</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="E14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>19.9316902659215</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,64 +1855,64 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,23 +2083,23 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -2125,25 +2125,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2253,55 +2253,55 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,64 +2329,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>90.50278177497624</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S27" t="n">
-        <v>124.0051303913027</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H29" t="n">
-        <v>82.96396779500076</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,28 +3031,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>10.06793172069468</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>10.51334449983033</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>241.0142888776591</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>212.2853856434421</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,25 +3347,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>92.76552758601771</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>35.10177309604858</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3429,64 +3429,64 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,26 +3739,26 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W42" t="n">
-        <v>90.90725545139047</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="C44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4061,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>92.72704515543269</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.79483382228227</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>42.79483382228227</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>42.79483382228227</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>42.79483382228227</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>87.37278572049297</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>42.79483382228227</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>42.79483382228227</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.284706443124001</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C3" t="n">
-        <v>4.284706443124001</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>807.2313985346275</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>605.0448038933935</v>
       </c>
       <c r="U3" t="n">
-        <v>4.284706443124001</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="V3" t="n">
-        <v>4.284706443124001</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="W3" t="n">
-        <v>4.284706443124001</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="X3" t="n">
-        <v>4.284706443124001</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.284706443124001</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.10852568854899</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>3.530573790338288</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>87.37278572049297</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>48.10852568854899</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>48.10852568854899</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>48.10852568854899</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X6" t="n">
-        <v>48.10852568854899</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.10852568854899</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.5286895169144</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C8" t="n">
-        <v>176.5286895169144</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D8" t="n">
-        <v>131.9507376187037</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E8" t="n">
-        <v>131.9507376187037</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F8" t="n">
-        <v>131.9507376187037</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G8" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.5286895169144</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>134.6031257566472</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>134.6031257566472</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>358.5031156175915</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>184.0500863364645</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>184.0500863364645</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>24.81263133100899</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>90.91227510121089</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>48.10852568854899</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>3.530573790338288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V12" t="n">
-        <v>3.530573790338288</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>149.3344187320537</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C14" t="n">
-        <v>149.3344187320537</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D14" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X14" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y14" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L15" t="n">
-        <v>3.530573790338288</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>3.530573790338288</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>47.22142444577459</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>90.91227510121089</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>134.6031257566472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>48.10852568854899</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U15" t="n">
-        <v>48.10852568854899</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V15" t="n">
-        <v>48.10852568854899</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W15" t="n">
-        <v>48.10852568854899</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
         <v>19.28114311021272</v>
@@ -5709,16 +5709,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>812.6742080953335</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>812.6742080953335</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W23" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6053,13 +6053,13 @@
         <v>257.2326523711826</v>
       </c>
       <c r="E24" t="n">
-        <v>257.2326523711826</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
-        <v>110.6980943980675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>110.6980943980675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6071,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N24" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N24" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6314,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S27" t="n">
-        <v>838.7994480446739</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T27" t="n">
-        <v>636.61285340344</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U27" t="n">
-        <v>636.61285340344</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>401.4607451716973</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>158.0119685275972</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>158.0119685275972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C29" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D29" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E29" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F29" t="n">
-        <v>559.1338160830064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y29" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,13 +6551,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>706.487660844374</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>471.3355526126313</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>227.8867759685313</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6733,19 +6733,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>352.8382100532927</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C33" t="n">
-        <v>178.3851807721657</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D33" t="n">
-        <v>29.45077111091442</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>29.45077111091442</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6791,40 +6791,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>852.2680861647034</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>617.1159779329607</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="X33" t="n">
-        <v>521.0535470733607</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y33" t="n">
-        <v>521.0535470733607</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="34">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
         <v>262.7299197543128</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.424473941237</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="C36" t="n">
-        <v>528.7219208240474</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="D36" t="n">
-        <v>528.7219208240474</v>
+        <v>201.2720375439829</v>
       </c>
       <c r="E36" t="n">
-        <v>369.484465818592</v>
+        <v>201.2720375439829</v>
       </c>
       <c r="F36" t="n">
-        <v>222.9499078454769</v>
+        <v>54.73747957086786</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X36" t="n">
-        <v>790.6398109613051</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.6398109613051</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>262.7299197543128</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7295,10 +7295,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7356,28 +7356,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7432,28 +7432,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
         <v>262.7299197543128</v>
@@ -7520,13 +7520,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>526.7184526376595</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
         <v>434.8929420806995</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.6850394389064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V44" t="n">
-        <v>559.1338160830064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W44" t="n">
-        <v>315.6850394389064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X44" t="n">
-        <v>315.6850394389064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y44" t="n">
-        <v>315.6850394389064</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>761.8705608694022</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>761.8705608694022</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>761.8705608694022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>761.8705608694022</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7839,7 +7839,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>176.3234617176304</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>184.9452987477446</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.3308283893217</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,7 +10208,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10439,7 +10439,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>368.0044283100869</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22606,13 +22606,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>16.42567169758919</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.8163559756081</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22691,7 +22691,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>376.4311200835105</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5763266090871</v>
+        <v>25.75595987902526</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22913,13 +22913,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23004,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23026,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>388.380409438123</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23111,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>106.1975949617593</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>141.7938727127821</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>139.5930390547956</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S13" t="n">
-        <v>204.0849077710508</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8115135864685</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5508692414544</v>
+        <v>252.344814527994</v>
       </c>
       <c r="E14" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23515,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23594,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>204.0849077710508</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>145.0597660285826</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>109.1580142581785</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>280.8531039918463</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>117.2220797075721</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>181.0464140131996</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>67.1422986804247</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>21.73266246152022</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24493,7 +24493,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24505,7 +24505,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>114.952062997102</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S27" t="n">
-        <v>47.67804071253514</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H29" t="n">
-        <v>256.5108343207664</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>142.630753465213</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,28 +24919,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>216.5306486674267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>135.0012806726892</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,13 +25052,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>215.4280375811445</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>113.6687527430239</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25210,13 +25210,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,25 +25235,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>79.94297140229803</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>102.241744067162</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25283,10 +25283,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25295,7 +25295,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>98.46051323810809</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>127.7557820643452</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25645,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,22 +25681,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25760,16 +25760,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W42" t="n">
-        <v>160.7877277095291</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>174.4700052756681</v>
       </c>
       <c r="C44" t="n">
-        <v>312.8473232832599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25949,22 +25949,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>54.71802040920606</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26079,10 +26079,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.4735004298</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.47350043</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.80321071921</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
-        <v>71731.80321071917</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="D2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="F2" t="n">
-        <v>71731.80321071924</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879934</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
+        <v>99696.40351879943</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="F4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8614.63262100047</v>
+        <v>-58486.9970375313</v>
       </c>
       <c r="C6" t="n">
-        <v>23404.33862524465</v>
+        <v>22282.4344940164</v>
       </c>
       <c r="D6" t="n">
-        <v>23404.33862524468</v>
+        <v>22282.43449401641</v>
       </c>
       <c r="E6" t="n">
-        <v>57031.93862524474</v>
+        <v>55910.03449401644</v>
       </c>
       <c r="F6" t="n">
-        <v>57031.93862524472</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="G6" t="n">
-        <v>14165.61021358455</v>
+        <v>55910.03449401644</v>
       </c>
       <c r="H6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.03449401643</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401637</v>
       </c>
       <c r="J6" t="n">
-        <v>56581.12700406594</v>
+        <v>-7149.908105089833</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401645</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.03449401644</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="O6" t="n">
-        <v>20748.16689659307</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="P6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.0344940164</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>42.34905430330016</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>42.34905430330019</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,7 +36928,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267281.5962860415</v>
+        <v>361671.1651892323</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>19492207.60956399</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5765385.89860145</v>
+        <v>5117581.913230947</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>155.2574994062486</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>220.2131257424249</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C6" t="n">
-        <v>146.9525391092905</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="8">
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>29.8892983910557</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F12" t="n">
-        <v>5.4761733385883</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.02492433367365</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>29.79900896488251</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1982,7 +1982,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>96.52468151912586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2016,61 +2016,61 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>70.64856914772001</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>220.2131257424249</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>90.50278177497624</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>77.23901705407374</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2490,55 +2490,55 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.05769526855297</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2724,58 +2724,58 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>220.2131257424249</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>50.05769526855297</v>
+        <v>191.4349418551538</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
@@ -3113,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>84.92225986759676</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>10.51334449983033</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3268,20 +3268,20 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3310,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>35.10177309604858</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>220.2131257424249</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>128.7026342415043</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,55 +3912,55 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>208.2638363878125</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>123.9717416665522</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.9696854242497</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C3" t="n">
-        <v>168.9696854242497</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>807.2313985346275</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>605.0448038933935</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>376.8211856297825</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>376.8211856297825</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>376.8211856297825</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X3" t="n">
-        <v>168.9696854242497</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.9696854242497</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>622.424473941237</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C6" t="n">
-        <v>473.9875657500345</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0531560887832</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>241.7186438601369</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6161971483371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>728.6161971483371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>933.8659450146204</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>933.8659450146204</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>705.6423267510095</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>470.4902185192667</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>227.0414418751666</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>742.8341567219593</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>517.4848137278872</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>358.5031156175915</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C12" t="n">
-        <v>184.0500863364645</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D12" t="n">
-        <v>184.0500863364645</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E12" t="n">
-        <v>24.81263133100899</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>761.8705608694022</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>526.7184526376595</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>526.7184526376595</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X12" t="n">
-        <v>526.7184526376595</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y12" t="n">
-        <v>526.7184526376595</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.78106667958005</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.6530896684844</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>74.24228005117135</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>933.9571464551993</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>705.7335281915883</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V15" t="n">
-        <v>470.5814199598456</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W15" t="n">
-        <v>227.1326433157456</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V17" t="n">
-        <v>728.6161971483371</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W17" t="n">
-        <v>728.6161971483371</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X17" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5630,13 +5630,13 @@
         <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>360.2295980564601</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
         <v>19.28114311021272</v>
@@ -5718,7 +5718,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5785,19 +5785,19 @@
         <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="21">
@@ -5837,10 +5837,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5855,22 +5855,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
         <v>19.28114311021272</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5928,34 +5928,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>241.7186438601369</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>257.2326523711826</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C24" t="n">
-        <v>257.2326523711826</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D24" t="n">
-        <v>257.2326523711826</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E24" t="n">
         <v>165.8157010833278</v>
@@ -6071,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X24" t="n">
-        <v>257.2326523711826</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.2326523711826</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6186,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6329,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>913.4938269565423</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>913.4938269565423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.7186438601369</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>241.7186438601369</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>241.7186438601369</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>241.7186438601369</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>241.7186438601369</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>241.7186438601369</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>241.7186438601369</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>241.7186438601369</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.7186438601369</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565423</v>
+        <v>568.5019327328832</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>568.5019327328832</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="31">
@@ -6639,19 +6639,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>411.587349213889</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6812,19 +6812,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>852.2680861647034</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>617.1159779329607</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>373.6672012888606</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>165.8157010833278</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y33" t="n">
-        <v>165.8157010833278</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="34">
@@ -6916,16 +6916,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,22 +6958,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
         <v>506.1786963984129</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>350.2064472052342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>350.2064472052342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>201.2720375439829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>201.2720375439829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>54.73747957086786</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W36" t="n">
-        <v>518.4217842253022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>518.4217842253022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>518.4217842253022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
         <v>262.7299197543128</v>
@@ -7165,7 +7165,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7259,10 +7259,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7323,10 +7323,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7402,7 +7402,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7435,25 +7435,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U41" t="n">
-        <v>485.167420504237</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
         <v>262.7299197543128</v>
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>262.6529395526377</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>262.6529395526377</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>262.6529395526377</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7502,10 +7502,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>255.9771075721939</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,10 +9166,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9248,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,10 +9965,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,13 +10907,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11150,13 +11150,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,22 +22676,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>16.42567169758919</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22713,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6435121988869</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22758,16 +22758,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,22 +22786,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.0248129136286</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C6" t="n">
-        <v>25.75595987902526</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22995,22 +22995,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="8">
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>195.0896117727101</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23074,22 +23074,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>320.3600505003333</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,16 +23105,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>141.7938727127821</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23226,22 +23226,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>315.8114241890584</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>240.1525967516569</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F12" t="n">
-        <v>139.5930390547956</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23390,16 +23390,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23460,10 +23460,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>130.2684670434958</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,10 +23472,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,16 +23500,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>252.344814527994</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>127.6615662182428</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23627,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>170.3657197299391</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23712,13 +23712,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>145.0597660285826</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,22 +23785,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.1580142581785</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>181.0464140131996</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24168,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>129.0278429749881</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>67.1422986804247</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>155.5615700953515</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24460,7 +24460,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24493,7 +24493,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24502,10 +24502,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>114.952062997102</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.10013888409016</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>201.1924361087609</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>195.0896117727101</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24812,22 +24812,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>175.8836868124218</v>
+        <v>34.50644022582105</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24888,13 +24888,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,10 +24970,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
@@ -25001,10 +25001,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>62.52280569704199</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25052,10 +25052,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>215.4280375811445</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25156,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>102.241744067162</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25283,19 +25283,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25444,16 +25444,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W38" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25642,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>107.53913272771</v>
+        <v>275.3266899823873</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25712,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25721,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>8.640882921706378</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,10 +25763,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>175.8836868124217</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>174.4700052756681</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>81.80124353692528</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498601.1074841412</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498601.1074841412</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498601.1074841412</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498601.107484141</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>71731.80321071924</v>
+      </c>
+      <c r="C2" t="n">
+        <v>71731.80321071923</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71731.80321071923</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71731.80321071923</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71731.80321071924</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="C2" t="n">
+      <c r="H2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="I2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="D2" t="n">
+      <c r="J2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="E2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879943</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879936</v>
-      </c>
       <c r="M2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
+        <v>99696.40351879946</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>16914.68964098083</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58486.9970375313</v>
+        <v>7159.793223095784</v>
       </c>
       <c r="C6" t="n">
-        <v>22282.4344940164</v>
+        <v>21949.49922733999</v>
       </c>
       <c r="D6" t="n">
-        <v>22282.43449401641</v>
+        <v>21949.49922733999</v>
       </c>
       <c r="E6" t="n">
-        <v>55910.03449401644</v>
+        <v>55577.09922733999</v>
       </c>
       <c r="F6" t="n">
-        <v>55910.03449401642</v>
+        <v>55577.09922734</v>
       </c>
       <c r="G6" t="n">
-        <v>55910.03449401644</v>
+        <v>12943.80915158053</v>
       </c>
       <c r="H6" t="n">
-        <v>55910.03449401643</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="I6" t="n">
-        <v>55910.03449401637</v>
+        <v>66906.24405205282</v>
       </c>
       <c r="J6" t="n">
-        <v>-7149.908105089833</v>
+        <v>55359.32594206191</v>
       </c>
       <c r="K6" t="n">
-        <v>55910.03449401645</v>
+        <v>66906.24405205282</v>
       </c>
       <c r="L6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="M6" t="n">
-        <v>55910.03449401644</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="N6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="O6" t="n">
-        <v>55910.03449401641</v>
+        <v>19526.36583458911</v>
       </c>
       <c r="P6" t="n">
-        <v>55910.0344940164</v>
+        <v>66906.24405205283</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,10 +36685,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37870,13 +37870,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
